--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f402_bao_cao_nhan_su_chuc_vu.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f402_bao_cao_nhan_su_chuc_vu.xlsx
@@ -80,7 +80,7 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,9 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,7 +421,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,8 +436,8 @@
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -444,7 +448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,10 +482,10 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f402_bao_cao_nhan_su_chuc_vu.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f402_bao_cao_nhan_su_chuc_vu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Mã chức vụ</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Địa bàn</t>
-  </si>
-  <si>
-    <t>Loại chức vụ</t>
   </si>
   <si>
     <t>Ngày bắt đầu</t>
@@ -418,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,20 +432,19 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,14 +475,11 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f402_bao_cao_nhan_su_chuc_vu.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f402_bao_cao_nhan_su_chuc_vu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Mã chức vụ</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>&lt;thoi_diem&gt;</t>
+  </si>
+  <si>
+    <t>Tỷ lệ tham gia</t>
+  </si>
+  <si>
+    <t>Loại chức vụ</t>
+  </si>
+  <si>
+    <t>Ngạch</t>
+  </si>
+  <si>
+    <t>Trạng thái chức vụ</t>
+  </si>
+  <si>
+    <t>Mã quyết định</t>
+  </si>
+  <si>
+    <t>Ngày có hiệu lực</t>
+  </si>
+  <si>
+    <t>Ngày hết hiệu lực</t>
+  </si>
+  <si>
+    <t>Mã quyết định miễn nhiệm</t>
   </si>
 </sst>
 </file>
@@ -77,7 +101,7 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -105,13 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,11 +453,11 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>12</v>
       </c>
@@ -444,42 +465,66 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>11</v>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f402_bao_cao_nhan_su_chuc_vu.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f402_bao_cao_nhan_su_chuc_vu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Mã chức vụ</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Địa bàn</t>
   </si>
   <si>
-    <t>Ngày bắt đầu</t>
-  </si>
-  <si>
-    <t>Ngày kết thúc</t>
-  </si>
-  <si>
     <t>Thời điểm:</t>
   </si>
   <si>
@@ -75,13 +69,25 @@
     <t>Mã quyết định</t>
   </si>
   <si>
-    <t>Ngày có hiệu lực</t>
-  </si>
-  <si>
-    <t>Ngày hết hiệu lực</t>
-  </si>
-  <si>
-    <t>Mã quyết định miễn nhiệm</t>
+    <t>Ngày bắt đầu chức vụ</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc chức vụ</t>
+  </si>
+  <si>
+    <t>Loại QĐ</t>
+  </si>
+  <si>
+    <t>Ngày QĐ có hiệu lực</t>
+  </si>
+  <si>
+    <t>Ngày QĐ hết hiệu lực</t>
+  </si>
+  <si>
+    <t>Mã QĐ miễn nhiệm</t>
+  </si>
+  <si>
+    <t>Trạng thái LĐ hiện tại</t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,15 +463,15 @@
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -485,46 +491,52 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
